--- a/Alleged-Geek - ZX81 Comp Mod Parts List.xlsx
+++ b/Alleged-Geek - ZX81 Comp Mod Parts List.xlsx
@@ -61,15 +61,6 @@
     <t>Royal Ohm CFR01SJ0560A10 56R 5% 1W Axial Carbon Film Resistor</t>
   </si>
   <si>
-    <t>47-3136</t>
-  </si>
-  <si>
-    <t>DC Components 1N4004 1A 400V Silicon Rectifier Diode</t>
-  </si>
-  <si>
-    <t>Suntan TS170R2A680JSBNA0R 68pF 5% 100V NPO P:2.54mm Radial Ceramic Capacitor</t>
-  </si>
-  <si>
     <t>Suntan TS170R2A820JSBNA0R 82pF 5% 100V NPO P:2.54mm Radial Ceramic Capacitor</t>
   </si>
   <si>
@@ -101,6 +92,15 @@
   </si>
   <si>
     <t>Alleged-Geek ZX81  Composite Video Modification Parts List from www.rapidonline.com</t>
+  </si>
+  <si>
+    <t>Kemet R82EC2100AA50K 10nf 10% 100V 5mm Polyester Box Capacitor</t>
+  </si>
+  <si>
+    <t>47-3416</t>
+  </si>
+  <si>
+    <t>DC Components 1N4148 Signal Diode 75V 150mA</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +271,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -453,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -654,8 +667,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -698,8 +755,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,7 +779,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,8 +803,42 @@
     <xf numFmtId="8" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -781,6 +872,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1091,23 +1183,24 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="3" max="3" width="100" style="25" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
@@ -1118,7 +1211,7 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1135,207 +1228,212 @@
       <c r="B3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>4.57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14">
-        <v>20</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
+      <c r="A8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="27">
+        <v>100</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <f>SUM(B8*D8)</f>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.7</v>
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0.52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18">
         <v>0.44</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="C15" s="24"/>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20">
         <f>SUM(E3:E13)</f>
-        <v>13.02</v>
+        <v>13.18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="https://www.rapidonline.com/kemet-r82ec2100aa50k-10nf-10-100v-5mm-polyester-box-capacitor-10-3250"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://www.rapidonline.com/dc-components-1n4148-signal-diode-75v-150ma-47-3416"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>